--- a/excel/6. 문자템플릿관리_기능정의서.xlsx
+++ b/excel/6. 문자템플릿관리_기능정의서.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibank\Desktop\JUN\01. RUN\AX LAB\messaging service\documents\20251119\spec\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE3FFB2-AFCC-4DC0-87F1-8C1918D54CD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9985E48-69C5-4F0E-99C9-D131699FDE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="문자템플릿_기능정의서" sheetId="1" r:id="rId1"/>
+    <sheet name="기능정의서" sheetId="1" r:id="rId1"/>
     <sheet name="화면흐름도" sheetId="2" r:id="rId2"/>
     <sheet name="주요검증사항" sheetId="3" r:id="rId3"/>
     <sheet name="참고사항" sheetId="4" r:id="rId4"/>
@@ -23,7 +23,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="167">
+  <si>
+    <t>문자템플릿_기능정의서</t>
+  </si>
   <si>
     <t>Role</t>
   </si>
@@ -168,10 +171,9 @@
     → 글자수 표시
     → 초과 시 경고 메시지
   ㄴ 변수 삽입 기능
-    → #{이름}, #{전화번호}, #{회사명} 등 변수 버튼
+    → #{이름}, #{전화번호} 변수 버튼
     → 클릭 시 커서 위치에 변수 삽입
     → 지원 변수 목록 안내 툴팁
-    → 사용자 정의 변수 추가 가능
   ㄴ 이미지 첨부 (MMS 선택 시)
     → 이미지 업로드 버튼
     → 지원 형식: JPG, PNG, GIF
@@ -400,8 +402,7 @@
     → 필수 입력 표시 (*)
   ㄴ 변수 삽입 버튼 영역
     → 자주 사용하는 변수 버튼
-    → #{이름}, #{전화번호}, #{회사명}, #{날짜} 등
-    → "더보기" 클릭 시 전체 변수 목록 표시
+    → #{이름}, #{전화번호}
     → 변수 설명 툴팁
   ㄴ 서식 도구 (선택사항)
     → 줄바꿈 삽입
@@ -754,69 +755,154 @@
 - 카테고리 삭제 시 템플릿 이동 로직 필요</t>
   </si>
   <si>
-    <t>화면 흐름도</t>
-  </si>
-  <si>
-    <t>[문자 템플릿 관리 페이지 진입]
-        ↓
-[템플릿 목록 표시] ← [검색/필터 적용]
-        ↓
-┌───────┼───────┬───────────┐
-│       │       │           │
-[조회]  [등록]  [수정]    [삭제]
-│       │       │           │
-↓       ↓       ↓           ↓
-[미리보기] [등록 팝업] [수정 팝업] [삭제 확인]
-│              │       │           │
-↓              ↓       ↓           ↓
-[발송페이지   [저장]  [저장]    [삭제처리]
- 이동]         │       │           │
-               ↓       ↓           ↓
-           [목록갱신] [목록갱신] [목록갱신]
-[부가 기능]
-    ↓
-[카테고리 관리] - [추가/수정/삭제]
-[템플릿 복사] - [복사 후 수정]
-[일괄 작업] - [선택 삭제/내보내기]</t>
-  </si>
-  <si>
-    <t>주요 검증 사항</t>
-  </si>
-  <si>
-    <t>**1. 입력값 검증**
-- 템플릿명 필수 입력
-- 메시지 내용 필수 입력
-- 메시지 타입별 바이트 수 제한
-  - SMS: 90바이트 (한글 45자)
-  - LMS/MMS: 2,000바이트 (한글 1,000자)
-- 이미지 파일 형식 (JPG, PNG, GIF)
-- 이미지 파일 크기 (최대 300KB)
-- 카테고리명 중복 검사
-- 카테고리명 길이 제한 (최대 20자)
-**2. 데이터 무결성**
-- 템플릿 삭제 시 예약 발송 연동 확인
-- 카테고리 삭제 시 템플릿 이동 처리
-- 템플릿 수정 시 사용 중인 예약 발송 영향 확인
-- 변수 형식 검증
-**3. 성능 최적화**
-- 목록 페이징 처리 (페이지당 20개)
-- 검색 쿼리 최적화
-- 이미지 로딩 최적화 (썸네일 사용)
-- 대량 삭제 시 배치 처리
-**4. 사용자 경험**
-- 실시간 바이트 카운터
-- 변수 치환 미리보기
-- 드래그 앤 드롭 이미지 업로드
-- 키보드 단축키 지원
-- 반응형 디자인 (PC/모바일)
-- 명확한 오류 메시지
-- 성공/실패 피드백 (토스트 메시지)</t>
-  </si>
-  <si>
-    <t>참고 사항</t>
-  </si>
-  <si>
-    <t>메시지 타입별 제한사항</t>
+    <t>화면흐름도</t>
+  </si>
+  <si>
+    <t>[문자 템플릿 관리 페이지 진입]</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>[템플릿 목록 표시] ← [검색/필터 적용]</t>
+  </si>
+  <si>
+    <t>┌───────┼───────┬───────────┐</t>
+  </si>
+  <si>
+    <t>│       │       │           │</t>
+  </si>
+  <si>
+    <t>[조회]  [등록]  [수정]    [삭제]</t>
+  </si>
+  <si>
+    <t>↓       ↓       ↓           ↓</t>
+  </si>
+  <si>
+    <t>[미리보기] [등록 팝업] [수정 팝업] [삭제 확인]</t>
+  </si>
+  <si>
+    <t>│              │       │           │</t>
+  </si>
+  <si>
+    <t>↓              ↓       ↓           ↓</t>
+  </si>
+  <si>
+    <t>[발송페이지   [저장]  [저장]    [삭제처리]</t>
+  </si>
+  <si>
+    <t>이동]         │       │           │</t>
+  </si>
+  <si>
+    <t>↓       ↓           ↓</t>
+  </si>
+  <si>
+    <t>[목록갱신] [목록갱신] [목록갱신]</t>
+  </si>
+  <si>
+    <t>[부가 기능]</t>
+  </si>
+  <si>
+    <t>[카테고리 관리] - [추가/수정/삭제]</t>
+  </si>
+  <si>
+    <t>[템플릿 복사] - [복사 후 수정]</t>
+  </si>
+  <si>
+    <t>[일괄 작업] - [선택 삭제/내보내기]</t>
+  </si>
+  <si>
+    <t>주요검증사항</t>
+  </si>
+  <si>
+    <t>### 1. 입력값 검증</t>
+  </si>
+  <si>
+    <t>- 템플릿명 필수 입력</t>
+  </si>
+  <si>
+    <t>- 메시지 내용 필수 입력</t>
+  </si>
+  <si>
+    <t>- 메시지 타입별 바이트 수 제한</t>
+  </si>
+  <si>
+    <t>- SMS: 90바이트 (한글 45자)</t>
+  </si>
+  <si>
+    <t>- LMS/MMS: 2,000바이트 (한글 1,000자)</t>
+  </si>
+  <si>
+    <t>- 이미지 파일 형식 (JPG, PNG, GIF)</t>
+  </si>
+  <si>
+    <t>- 이미지 파일 크기 (최대 300KB)</t>
+  </si>
+  <si>
+    <t>- 카테고리명 중복 검사</t>
+  </si>
+  <si>
+    <t>- 카테고리명 길이 제한 (최대 20자)</t>
+  </si>
+  <si>
+    <t>### 2. 데이터 무결성</t>
+  </si>
+  <si>
+    <t>- 템플릿 삭제 시 예약 발송 연동 확인</t>
+  </si>
+  <si>
+    <t>- 카테고리 삭제 시 템플릿 이동 처리</t>
+  </si>
+  <si>
+    <t>- 템플릿 수정 시 사용 중인 예약 발송 영향 확인</t>
+  </si>
+  <si>
+    <t>- 변수 형식 검증</t>
+  </si>
+  <si>
+    <t>### 3. 성능 최적화</t>
+  </si>
+  <si>
+    <t>- 목록 페이징 처리 (페이지당 20개)</t>
+  </si>
+  <si>
+    <t>- 검색 쿼리 최적화</t>
+  </si>
+  <si>
+    <t>- 이미지 로딩 최적화 (썸네일 사용)</t>
+  </si>
+  <si>
+    <t>- 대량 삭제 시 배치 처리</t>
+  </si>
+  <si>
+    <t>### 4. 사용자 경험</t>
+  </si>
+  <si>
+    <t>- 실시간 바이트 카운터</t>
+  </si>
+  <si>
+    <t>- 변수 치환 미리보기</t>
+  </si>
+  <si>
+    <t>- 드래그 앤 드롭 이미지 업로드</t>
+  </si>
+  <si>
+    <t>- 키보드 단축키 지원</t>
+  </si>
+  <si>
+    <t>- 반응형 디자인 (PC/모바일)</t>
+  </si>
+  <si>
+    <t>- 명확한 오류 메시지</t>
+  </si>
+  <si>
+    <t>- 성공/실패 피드백 (토스트 메시지)</t>
+  </si>
+  <si>
+    <t>참고사항</t>
+  </si>
+  <si>
+    <t>### 메시지 타입별 제한사항</t>
   </si>
   <si>
     <t>바이트 제한</t>
@@ -864,71 +950,133 @@
     <t>이미지 포함 메시지</t>
   </si>
   <si>
-    <t>변수 종류</t>
-  </si>
-  <si>
-    <t>**기본 변수**
-- #{이름}: 수신자 이름
-- #{전화번호}: 수신자 전화번호
-- #{회사명}: 회사명
-- #{날짜}: 현재 날짜
-- #{시간}: 현재 시간
-**사용자 정의 변수**
-- 관리자가 추가 정의 가능
-- 엑셀 업로드 시 컬럼 매칭</t>
-  </si>
-  <si>
-    <t>이미지 업로드 제약사항</t>
-  </si>
-  <si>
-    <t>- 지원 형식: JPG, JPEG, PNG, GIF
-- 최대 용량: 300KB
-- 권장 크기: 가로 1,000px
-- 최소 크기: 가로 400px
-- 자동 리사이징 처리
-- 썸네일 자동 생성</t>
-  </si>
-  <si>
-    <t>기술적 고려사항</t>
-  </si>
-  <si>
-    <t>- 템플릿 데이터 암호화 저장 (개인정보 포함 시)
-- 템플릿 버전 관리 (선택사항)
-- 템플릿 사용 통계 수집
-- 템플릿 공유 기능 (기업회원)
-- 템플릿 백업/복원 기능
-- API 연동 지원 (외부 시스템)</t>
-  </si>
-  <si>
-    <t>연동 페이지</t>
-  </si>
-  <si>
-    <t>- 일반문자 발송 페이지
-- 광고문자 발송 페이지
-- 공직선거문자 발송 페이지
-- 발송내역 페이지 (템플릿 사용 통계)</t>
-  </si>
-  <si>
-    <t>보안 고려사항</t>
-  </si>
-  <si>
-    <t>- 템플릿 권한 관리 (본인/팀 구분)
-- 민감정보 포함 템플릿 마스킹 처리
-- 템플릿 공유 권한 제어
-- 템플릿 수정 이력 로깅</t>
-  </si>
-  <si>
-    <t>확장 기능 (추후 개발 고려)</t>
-  </si>
-  <si>
-    <t>- 템플릿 버전 관리 및 이력 추적
-- 템플릿 승인 워크플로우 (기업회원)
-- 템플릿 성과 분석 (오픈율, 클릭율)
-- AI 기반 템플릿 추천
-- 템플릿 A/B 테스팅
-- 다국어 템플릿 지원
-- 템플릿 태그 기능
-- 템플릿 즐겨찾기</t>
+    <t>### 변수 종류</t>
+  </si>
+  <si>
+    <t>- 기본 변수</t>
+  </si>
+  <si>
+    <t>- #{이름}: 수신자 이름</t>
+  </si>
+  <si>
+    <t>- #{전화번호}: 수신자 전화번호</t>
+  </si>
+  <si>
+    <t>- #{회사명}: 회사명</t>
+  </si>
+  <si>
+    <t>- #{날짜}: 현재 날짜</t>
+  </si>
+  <si>
+    <t>- #{시간}: 현재 시간</t>
+  </si>
+  <si>
+    <t>- 사용자 정의 변수</t>
+  </si>
+  <si>
+    <t>- 관리자가 추가 정의 가능</t>
+  </si>
+  <si>
+    <t>- 엑셀 업로드 시 컬럼 매칭</t>
+  </si>
+  <si>
+    <t>### 이미지 업로드 제약사항</t>
+  </si>
+  <si>
+    <t>- 지원 형식: JPG, JPEG, PNG, GIF</t>
+  </si>
+  <si>
+    <t>- 최대 용량: 300KB</t>
+  </si>
+  <si>
+    <t>- 권장 크기: 가로 1,000px</t>
+  </si>
+  <si>
+    <t>- 최소 크기: 가로 400px</t>
+  </si>
+  <si>
+    <t>- 자동 리사이징 처리</t>
+  </si>
+  <si>
+    <t>- 썸네일 자동 생성</t>
+  </si>
+  <si>
+    <t>### 기술적 고려사항</t>
+  </si>
+  <si>
+    <t>- 템플릿 데이터 암호화 저장 (개인정보 포함 시)</t>
+  </si>
+  <si>
+    <t>- 템플릿 버전 관리 (선택사항)</t>
+  </si>
+  <si>
+    <t>- 템플릿 사용 통계 수집</t>
+  </si>
+  <si>
+    <t>- 템플릿 공유 기능 (기업회원)</t>
+  </si>
+  <si>
+    <t>- 템플릿 백업/복원 기능</t>
+  </si>
+  <si>
+    <t>- API 연동 지원 (외부 시스템)</t>
+  </si>
+  <si>
+    <t>### 연동 페이지</t>
+  </si>
+  <si>
+    <t>- 일반문자 발송 페이지</t>
+  </si>
+  <si>
+    <t>- 광고문자 발송 페이지</t>
+  </si>
+  <si>
+    <t>- 공직선거문자 발송 페이지</t>
+  </si>
+  <si>
+    <t>- 발송내역 페이지 (템플릿 사용 통계)</t>
+  </si>
+  <si>
+    <t>### 보안 고려사항</t>
+  </si>
+  <si>
+    <t>- 템플릿 권한 관리 (본인/팀 구분)</t>
+  </si>
+  <si>
+    <t>- 민감정보 포함 템플릿 마스킹 처리</t>
+  </si>
+  <si>
+    <t>- 템플릿 공유 권한 제어</t>
+  </si>
+  <si>
+    <t>- 템플릿 수정 이력 로깅</t>
+  </si>
+  <si>
+    <t>### 확장 기능 (추후 개발 고려)</t>
+  </si>
+  <si>
+    <t>- 템플릿 버전 관리 및 이력 추적</t>
+  </si>
+  <si>
+    <t>- 템플릿 승인 워크플로우 (기업회원)</t>
+  </si>
+  <si>
+    <t>- 템플릿 성과 분석 (오픈율, 클릭율)</t>
+  </si>
+  <si>
+    <t>- AI 기반 템플릿 추천</t>
+  </si>
+  <si>
+    <t>- 템플릿 A/B 테스팅</t>
+  </si>
+  <si>
+    <t>- 다국어 템플릿 지원</t>
+  </si>
+  <si>
+    <t>- 템플릿 태그 기능</t>
+  </si>
+  <si>
+    <t>- 템플릿 즐겨찾기</t>
   </si>
 </sst>
 </file>
@@ -945,25 +1093,19 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -982,8 +1124,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF366092"/>
-        <bgColor rgb="FF366092"/>
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1014,21 +1156,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,19 +1480,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.69921875" bestFit="1" customWidth="1"/>
@@ -1352,345 +1500,574 @@
     <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="55.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="K9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="N9" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="60" customWidth="1"/>
+    <col min="1" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="382.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A18:E18"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1698,26 +2075,303 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="1" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1725,154 +2379,531 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="1" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>71</v>
+      <c r="A5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>75</v>
+      <c r="A6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="174" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A40" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A42" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A48" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A50" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A56" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="A7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A24:E24"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
